--- a/Code/Results/Cases/Case_2_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05516178286743</v>
+        <v>0.5274804347440067</v>
       </c>
       <c r="C2">
-        <v>0.09910640887904876</v>
+        <v>0.2166936413146736</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.149051319470118</v>
+        <v>0.2656308330134358</v>
       </c>
       <c r="F2">
-        <v>0.9501065007699339</v>
+        <v>1.757973475083546</v>
       </c>
       <c r="G2">
-        <v>0.2684162416489286</v>
+        <v>0.5606897635212249</v>
       </c>
       <c r="H2">
-        <v>0.264166219897902</v>
+        <v>0.7067414277022337</v>
       </c>
       <c r="I2">
-        <v>0.297013100660827</v>
+        <v>0.7450574551184417</v>
       </c>
       <c r="J2">
-        <v>0.06056611117635669</v>
+        <v>0.03920254792420863</v>
       </c>
       <c r="K2">
-        <v>0.8016967581800998</v>
+        <v>0.2589464960078942</v>
       </c>
       <c r="L2">
-        <v>0.4440061898555285</v>
+        <v>0.5080229710374056</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.779760705711503</v>
+        <v>1.536038497746656</v>
       </c>
       <c r="O2">
-        <v>1.070123637918158</v>
+        <v>2.509821724427596</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.91850825860908</v>
+        <v>0.4876902216841188</v>
       </c>
       <c r="C3">
-        <v>0.1003554353899805</v>
+        <v>0.2175145129797205</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1387545086667643</v>
+        <v>0.2642848230432797</v>
       </c>
       <c r="F3">
-        <v>0.9013829657645047</v>
+        <v>1.7568267384693</v>
       </c>
       <c r="G3">
-        <v>0.265424785036366</v>
+        <v>0.5644144012901222</v>
       </c>
       <c r="H3">
-        <v>0.2676317933381966</v>
+        <v>0.7116026924184595</v>
       </c>
       <c r="I3">
-        <v>0.3014923373156613</v>
+        <v>0.7511606913847544</v>
       </c>
       <c r="J3">
-        <v>0.05531611043882023</v>
+        <v>0.03743014707833936</v>
       </c>
       <c r="K3">
-        <v>0.7002348962421081</v>
+        <v>0.2273645260292199</v>
       </c>
       <c r="L3">
-        <v>0.3972538259175451</v>
+        <v>0.4975651653776936</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8082376360985108</v>
+        <v>1.549085865828527</v>
       </c>
       <c r="O3">
-        <v>1.070739396298393</v>
+        <v>2.527682279579295</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8346720197246782</v>
+        <v>0.4633512788404346</v>
       </c>
       <c r="C4">
-        <v>0.1011671906009344</v>
+        <v>0.2180506012910826</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1325718988984335</v>
+        <v>0.2635601982088538</v>
       </c>
       <c r="F4">
-        <v>0.8728128397789519</v>
+        <v>1.756954315770969</v>
       </c>
       <c r="G4">
-        <v>0.2641671403716828</v>
+        <v>0.5670146360707307</v>
       </c>
       <c r="H4">
-        <v>0.2701359720160426</v>
+        <v>0.7148369771477761</v>
       </c>
       <c r="I4">
-        <v>0.3047681910849818</v>
+        <v>0.7552278915601214</v>
       </c>
       <c r="J4">
-        <v>0.05208299729277854</v>
+        <v>0.03633192687429343</v>
       </c>
       <c r="K4">
-        <v>0.6378564304052787</v>
+        <v>0.2079305845066699</v>
       </c>
       <c r="L4">
-        <v>0.3688357855482991</v>
+        <v>0.4913469810525584</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.826568095919292</v>
+        <v>1.557554367793287</v>
       </c>
       <c r="O4">
-        <v>1.073125489100448</v>
+        <v>2.539827720820824</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8005182747399147</v>
+        <v>0.4534570159390512</v>
       </c>
       <c r="C5">
-        <v>0.1015092171699745</v>
+        <v>0.2182771470932483</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1300860660949219</v>
+        <v>0.2632905967681722</v>
       </c>
       <c r="F5">
-        <v>0.8614944307191692</v>
+        <v>1.757215773829003</v>
       </c>
       <c r="G5">
-        <v>0.2637944448765737</v>
+        <v>0.568153046090913</v>
       </c>
       <c r="H5">
-        <v>0.2712485627389825</v>
+        <v>0.7162177730101078</v>
       </c>
       <c r="I5">
-        <v>0.3062313251719324</v>
+        <v>0.7569657748888581</v>
       </c>
       <c r="J5">
-        <v>0.05076281461125021</v>
+        <v>0.03588190531295865</v>
       </c>
       <c r="K5">
-        <v>0.6124117436101244</v>
+        <v>0.2000009788888804</v>
       </c>
       <c r="L5">
-        <v>0.3573227631492273</v>
+        <v>0.4888643223523985</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.834246140583133</v>
+        <v>1.561120436780474</v>
       </c>
       <c r="O5">
-        <v>1.074585174140822</v>
+        <v>2.54507372845859</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7948474821187119</v>
+        <v>0.4518155579500274</v>
       </c>
       <c r="C6">
-        <v>0.1015666873298748</v>
+        <v>0.2183152538192399</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.129675284240637</v>
+        <v>0.2632473836455524</v>
       </c>
       <c r="F6">
-        <v>0.8596341854940945</v>
+        <v>1.757271850067291</v>
       </c>
       <c r="G6">
-        <v>0.2637408371425778</v>
+        <v>0.5683468375188596</v>
       </c>
       <c r="H6">
-        <v>0.2714387998768117</v>
+        <v>0.7164508481306555</v>
       </c>
       <c r="I6">
-        <v>0.3064819071912162</v>
+        <v>0.757259210609142</v>
       </c>
       <c r="J6">
-        <v>0.0505434313188502</v>
+        <v>0.03580702979031614</v>
       </c>
       <c r="K6">
-        <v>0.6081850329023979</v>
+        <v>0.1986836795600908</v>
       </c>
       <c r="L6">
-        <v>0.3554149762924084</v>
+        <v>0.488455185157278</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8355335262968353</v>
+        <v>1.561719533023933</v>
       </c>
       <c r="O6">
-        <v>1.074856486137492</v>
+        <v>2.545962745628927</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8342113784181606</v>
+        <v>0.4632177428746331</v>
       </c>
       <c r="C7">
-        <v>0.1011717578826943</v>
+        <v>0.2180536238010156</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1325382398438499</v>
+        <v>0.2635564581452563</v>
       </c>
       <c r="F7">
-        <v>0.8726589018862825</v>
+        <v>1.756956993304996</v>
       </c>
       <c r="G7">
-        <v>0.2641615555270604</v>
+        <v>0.5670296700175683</v>
       </c>
       <c r="H7">
-        <v>0.2701506070602377</v>
+        <v>0.7148553446779857</v>
       </c>
       <c r="I7">
-        <v>0.3047874094852503</v>
+        <v>0.7552510033871727</v>
       </c>
       <c r="J7">
-        <v>0.05206520395355696</v>
+        <v>0.03632586777784752</v>
       </c>
       <c r="K7">
-        <v>0.6375133815447782</v>
+        <v>0.2078236832838343</v>
       </c>
       <c r="L7">
-        <v>0.368680249655398</v>
+        <v>0.4913132909734799</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8266708072315225</v>
+        <v>1.55760199496482</v>
       </c>
       <c r="O7">
-        <v>1.073143224471181</v>
+        <v>2.539897268989705</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008024655472951</v>
+        <v>0.5137420672638768</v>
       </c>
       <c r="C8">
-        <v>0.09952773565170148</v>
+        <v>0.2169700345571339</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1454710702138691</v>
+        <v>0.265145642630138</v>
       </c>
       <c r="F8">
-        <v>0.9330183377829826</v>
+        <v>1.757405663275406</v>
       </c>
       <c r="G8">
-        <v>0.2672610146928704</v>
+        <v>0.5619090024383908</v>
       </c>
       <c r="H8">
-        <v>0.2652815079168818</v>
+        <v>0.7083658624044062</v>
       </c>
       <c r="I8">
-        <v>0.2984460228767567</v>
+        <v>0.7470955107100359</v>
       </c>
       <c r="J8">
-        <v>0.05875774594412775</v>
+        <v>0.03859350045953747</v>
       </c>
       <c r="K8">
-        <v>0.766726454384397</v>
+        <v>0.2480661806433773</v>
       </c>
       <c r="L8">
-        <v>0.4278231587835251</v>
+        <v>0.5043751541453645</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7894013811244527</v>
+        <v>1.54044235140428</v>
       </c>
       <c r="O8">
-        <v>1.069908374980159</v>
+        <v>2.515735449349506</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.349788838121356</v>
+        <v>0.6135223849506701</v>
       </c>
       <c r="C9">
-        <v>0.09666189823746762</v>
+        <v>0.2150986231032945</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1720121172807616</v>
+        <v>0.2690667531710389</v>
       </c>
       <c r="F9">
-        <v>1.062749491741542</v>
+        <v>1.76487171876596</v>
       </c>
       <c r="G9">
-        <v>0.2782084914638219</v>
+        <v>0.5543529238381097</v>
       </c>
       <c r="H9">
-        <v>0.2588370259124346</v>
+        <v>0.6976160779050886</v>
       </c>
       <c r="I9">
-        <v>0.2903670061461483</v>
+        <v>0.7336376887750191</v>
       </c>
       <c r="J9">
-        <v>0.07181810276097167</v>
+        <v>0.04296076561315942</v>
       </c>
       <c r="K9">
-        <v>1.019713042725556</v>
+        <v>0.3266232911771851</v>
       </c>
       <c r="L9">
-        <v>0.5463247294344882</v>
+        <v>0.5315896487941245</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7232287657991847</v>
+        <v>1.510417526126343</v>
       </c>
       <c r="O9">
-        <v>1.080326873527781</v>
+        <v>2.477701853038653</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.602002132533102</v>
+        <v>0.6872247813307126</v>
       </c>
       <c r="C10">
-        <v>0.09477791238440858</v>
+        <v>0.2138769221510479</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1923369266136916</v>
+        <v>0.2724343654263208</v>
       </c>
       <c r="F10">
-        <v>1.16599543666662</v>
+        <v>1.774357980280683</v>
       </c>
       <c r="G10">
-        <v>0.2896195674527036</v>
+        <v>0.5503167523368333</v>
       </c>
       <c r="H10">
-        <v>0.2561660280652234</v>
+        <v>0.6909185896358991</v>
       </c>
       <c r="I10">
-        <v>0.2873569613845817</v>
+        <v>0.7252926066678604</v>
       </c>
       <c r="J10">
-        <v>0.08139355849385055</v>
+        <v>0.04612044379233282</v>
       </c>
       <c r="K10">
-        <v>1.205708459507207</v>
+        <v>0.3840976657308772</v>
       </c>
       <c r="L10">
-        <v>0.6352786206467158</v>
+        <v>0.5525485839228423</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6791189777874393</v>
+        <v>1.490562588020719</v>
       </c>
       <c r="O10">
-        <v>1.099406806957631</v>
+        <v>2.455448563153283</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.717117015785362</v>
+        <v>0.7208325606746939</v>
       </c>
       <c r="C11">
-        <v>0.09396972087355948</v>
+        <v>0.2133541317639889</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2017871160162201</v>
+        <v>0.274071302575706</v>
       </c>
       <c r="F11">
-        <v>1.214921454499361</v>
+        <v>1.779539466856917</v>
       </c>
       <c r="G11">
-        <v>0.2956352579952579</v>
+        <v>0.5488096601160422</v>
       </c>
       <c r="H11">
-        <v>0.255439129786005</v>
+        <v>0.6881314824232021</v>
       </c>
       <c r="I11">
-        <v>0.2866856585339725</v>
+        <v>0.7218304879581403</v>
       </c>
       <c r="J11">
-        <v>0.08574975781020555</v>
+        <v>0.0475471502350473</v>
       </c>
       <c r="K11">
-        <v>1.290438695224566</v>
+        <v>0.4101872141973502</v>
       </c>
       <c r="L11">
-        <v>0.6762395893617708</v>
+        <v>0.56229055274909</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6600992537228763</v>
+        <v>1.482007511761527</v>
       </c>
       <c r="O11">
-        <v>1.110849332019711</v>
+        <v>2.446558764079384</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.760774253684019</v>
+        <v>0.7335697411741364</v>
       </c>
       <c r="C12">
-        <v>0.09367077588664685</v>
+        <v>0.2131608840027752</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2053971736984153</v>
+        <v>0.2747061893136262</v>
       </c>
       <c r="F12">
-        <v>1.233750606816756</v>
+        <v>1.78162581482114</v>
       </c>
       <c r="G12">
-        <v>0.2980400461025923</v>
+        <v>0.5482862682800089</v>
       </c>
       <c r="H12">
-        <v>0.2552376151750479</v>
+        <v>0.6871133402087395</v>
       </c>
       <c r="I12">
-        <v>0.2865373613648536</v>
+        <v>0.7205674692551227</v>
       </c>
       <c r="J12">
-        <v>0.08739974423559715</v>
+        <v>0.04808586170987894</v>
       </c>
       <c r="K12">
-        <v>1.322548602105343</v>
+        <v>0.4200581082806707</v>
       </c>
       <c r="L12">
-        <v>0.6918288215732673</v>
+        <v>0.5660091998281729</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6530535144712388</v>
+        <v>1.478836454105128</v>
       </c>
       <c r="O12">
-        <v>1.115604470588906</v>
+        <v>2.443369635010654</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.751368782787239</v>
+        <v>0.7308261021981082</v>
       </c>
       <c r="C13">
-        <v>0.09373484201897853</v>
+        <v>0.2132022936716602</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2046182486709753</v>
+        <v>0.2745687886718144</v>
       </c>
       <c r="F13">
-        <v>1.229681648774744</v>
+        <v>1.781170962315827</v>
       </c>
       <c r="G13">
-        <v>0.2975163582621931</v>
+        <v>0.5483968858365884</v>
       </c>
       <c r="H13">
-        <v>0.2552776763510565</v>
+        <v>0.6873309584545666</v>
       </c>
       <c r="I13">
-        <v>0.2865644978799295</v>
+        <v>0.7208373481728074</v>
       </c>
       <c r="J13">
-        <v>0.08704436710150532</v>
+        <v>0.04796990987411931</v>
       </c>
       <c r="K13">
-        <v>1.315631954388493</v>
+        <v>0.417932629332995</v>
       </c>
       <c r="L13">
-        <v>0.688467808020647</v>
+        <v>0.5652070118245121</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6545638725650278</v>
+        <v>1.479516349204719</v>
       </c>
       <c r="O13">
-        <v>1.114561183319353</v>
+        <v>2.444048589712054</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.720707341075837</v>
+        <v>0.7218802479452506</v>
       </c>
       <c r="C14">
-        <v>0.09394498375023375</v>
+        <v>0.213338138635411</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.202083474392893</v>
+        <v>0.2741232346639961</v>
       </c>
       <c r="F14">
-        <v>1.216464368970904</v>
+        <v>1.779708624004897</v>
       </c>
       <c r="G14">
-        <v>0.2958305120434233</v>
+        <v>0.5487656521449935</v>
       </c>
       <c r="H14">
-        <v>0.2554210520114424</v>
+        <v>0.6880469725351546</v>
       </c>
       <c r="I14">
-        <v>0.2866713025929499</v>
+        <v>0.7217256166348598</v>
       </c>
       <c r="J14">
-        <v>0.08588549333631335</v>
+        <v>0.04759150155910419</v>
       </c>
       <c r="K14">
-        <v>1.293079864696466</v>
+        <v>0.4109994755559683</v>
       </c>
       <c r="L14">
-        <v>0.677520516197589</v>
+        <v>0.5625958969870481</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6595164209583579</v>
+        <v>1.481745252994195</v>
       </c>
       <c r="O14">
-        <v>1.111231933501429</v>
+        <v>2.446292840874406</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.701935216459049</v>
+        <v>0.716402013715026</v>
       </c>
       <c r="C15">
-        <v>0.09407462854565551</v>
+        <v>0.213421961928276</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2005350152233447</v>
+        <v>0.2738522727675914</v>
       </c>
       <c r="F15">
-        <v>1.208408344282418</v>
+        <v>1.778829068694506</v>
       </c>
       <c r="G15">
-        <v>0.2948146433734635</v>
+        <v>0.5489976935920993</v>
       </c>
       <c r="H15">
-        <v>0.2555185865118759</v>
+        <v>0.6884904044165552</v>
       </c>
       <c r="I15">
-        <v>0.2867506859586619</v>
+        <v>0.7222759581294902</v>
       </c>
       <c r="J15">
-        <v>0.08517571094692045</v>
+        <v>0.04735951291098672</v>
       </c>
       <c r="K15">
-        <v>1.279269457780401</v>
+        <v>0.4067515734806193</v>
       </c>
       <c r="L15">
-        <v>0.6708253819641214</v>
+        <v>0.5610003568367432</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.662570585794434</v>
+        <v>1.483119449048985</v>
       </c>
       <c r="O15">
-        <v>1.109248402056977</v>
+        <v>2.447690588847337</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.594487696089317</v>
+        <v>0.6850299716844006</v>
       </c>
       <c r="C16">
-        <v>0.09483171883572794</v>
+        <v>0.2139117494880445</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1917236224630017</v>
+        <v>0.2723294933141105</v>
       </c>
       <c r="F16">
-        <v>1.162839128999437</v>
+        <v>1.774036759705297</v>
       </c>
       <c r="G16">
-        <v>0.2892437125227403</v>
+        <v>0.5504218646795209</v>
       </c>
       <c r="H16">
-        <v>0.2562236543295171</v>
+        <v>0.6911059528312435</v>
       </c>
       <c r="I16">
-        <v>0.2874153446065257</v>
+        <v>0.7255255844290147</v>
       </c>
       <c r="J16">
-        <v>0.08110890552644889</v>
+        <v>0.0460269891986087</v>
       </c>
       <c r="K16">
-        <v>1.200174153700686</v>
+        <v>0.3823914756240185</v>
       </c>
       <c r="L16">
-        <v>0.6326122796032791</v>
+        <v>0.5519160774158536</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6803835327063119</v>
+        <v>1.491131278661477</v>
       </c>
       <c r="O16">
-        <v>1.098716696326136</v>
+        <v>2.456054341125807</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.528677387822995</v>
+        <v>0.6658041472078366</v>
       </c>
       <c r="C17">
-        <v>0.09530873165449805</v>
+        <v>0.2142206484294178</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1863719053697466</v>
+        <v>0.2714221492379139</v>
       </c>
       <c r="F17">
-        <v>1.135399661270284</v>
+        <v>1.771318446337531</v>
       </c>
       <c r="G17">
-        <v>0.2860430377990326</v>
+        <v>0.551379810815888</v>
       </c>
       <c r="H17">
-        <v>0.2567836808563442</v>
+        <v>0.6927769594828561</v>
       </c>
       <c r="I17">
-        <v>0.2880057092483916</v>
+        <v>0.727604672835767</v>
       </c>
       <c r="J17">
-        <v>0.07861436468088101</v>
+        <v>0.04520678775421771</v>
       </c>
       <c r="K17">
-        <v>1.151687409562072</v>
+        <v>0.3674326011789333</v>
       </c>
       <c r="L17">
-        <v>0.6093014879882048</v>
+        <v>0.5463961470176031</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6915834198889996</v>
+        <v>1.496168432467602</v>
       </c>
       <c r="O17">
-        <v>1.092980699179719</v>
+        <v>2.461501042680965</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.490860284584926</v>
+        <v>0.6547535623415399</v>
       </c>
       <c r="C18">
-        <v>0.09558768931895756</v>
+        <v>0.2144014231188081</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1833128397542794</v>
+        <v>0.2709101564230281</v>
       </c>
       <c r="F18">
-        <v>1.119800309786442</v>
+        <v>1.769836488582214</v>
       </c>
       <c r="G18">
-        <v>0.2842792058295061</v>
+        <v>0.5519617612723309</v>
       </c>
       <c r="H18">
-        <v>0.2571515162129572</v>
+        <v>0.6937625177996694</v>
       </c>
       <c r="I18">
-        <v>0.2884106193938969</v>
+        <v>0.7288319586229868</v>
       </c>
       <c r="J18">
-        <v>0.07717957476170767</v>
+        <v>0.0447340286544744</v>
       </c>
       <c r="K18">
-        <v>1.12380995301217</v>
+        <v>0.3588234342328178</v>
       </c>
       <c r="L18">
-        <v>0.5959399252575963</v>
+        <v>0.5432407905302199</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6981233664102184</v>
+        <v>1.499110572691361</v>
       </c>
       <c r="O18">
-        <v>1.089940003540136</v>
+        <v>2.464749935024599</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.47806179838031</v>
+        <v>0.6510133566729337</v>
       </c>
       <c r="C19">
-        <v>0.09568292612129525</v>
+        <v>0.214463164054667</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1822803113484213</v>
+        <v>0.2707385051900246</v>
       </c>
       <c r="F19">
-        <v>1.114549487614724</v>
+        <v>1.76934873811436</v>
       </c>
       <c r="G19">
-        <v>0.2836950048046134</v>
+        <v>0.5521641178669583</v>
       </c>
       <c r="H19">
-        <v>0.2572838069987071</v>
+        <v>0.6941004101696251</v>
       </c>
       <c r="I19">
-        <v>0.2885587746490188</v>
+        <v>0.729252898920894</v>
       </c>
       <c r="J19">
-        <v>0.07669376993838739</v>
+        <v>0.04457378925114597</v>
       </c>
       <c r="K19">
-        <v>1.114372776597008</v>
+        <v>0.3559076410177227</v>
       </c>
       <c r="L19">
-        <v>0.5914236570495888</v>
+        <v>0.5421758093849149</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7003543397054415</v>
+        <v>1.5001144439229</v>
       </c>
       <c r="O19">
-        <v>1.088954140882691</v>
+        <v>2.46586989660392</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.535679283559404</v>
+        <v>0.6678499888096212</v>
       </c>
       <c r="C20">
-        <v>0.09525747698317488</v>
+        <v>0.2141874444777372</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1869396131701393</v>
+        <v>0.2715177148513135</v>
       </c>
       <c r="F20">
-        <v>1.138301545846289</v>
+        <v>1.771599378218497</v>
       </c>
       <c r="G20">
-        <v>0.2863757165511771</v>
+        <v>0.5512746310041265</v>
       </c>
       <c r="H20">
-        <v>0.256719307856045</v>
+        <v>0.6925965489928245</v>
       </c>
       <c r="I20">
-        <v>0.2879360614750013</v>
+        <v>0.7273800956969119</v>
       </c>
       <c r="J20">
-        <v>0.07887990993745575</v>
+        <v>0.04529420333622625</v>
       </c>
       <c r="K20">
-        <v>1.156847734528469</v>
+        <v>0.3690255434577807</v>
       </c>
       <c r="L20">
-        <v>0.6117781321295723</v>
+        <v>0.5469817305475573</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6903809793184124</v>
+        <v>1.495627571843034</v>
       </c>
       <c r="O20">
-        <v>1.09356437716842</v>
+        <v>2.460909217516686</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.729711475940093</v>
+        <v>0.7245075803911618</v>
       </c>
       <c r="C21">
-        <v>0.09388306671848667</v>
+        <v>0.2132981096860753</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2028271275168052</v>
+        <v>0.2742536978647436</v>
       </c>
       <c r="F21">
-        <v>1.220338243041724</v>
+        <v>1.780134779153073</v>
       </c>
       <c r="G21">
-        <v>0.2963221777428657</v>
+        <v>0.5486560524971225</v>
       </c>
       <c r="H21">
-        <v>0.2553769083463138</v>
+        <v>0.6878356506718575</v>
       </c>
       <c r="I21">
-        <v>0.2866370113850323</v>
+        <v>0.7214634079252846</v>
       </c>
       <c r="J21">
-        <v>0.0862258692367206</v>
+        <v>0.0477026915180474</v>
       </c>
       <c r="K21">
-        <v>1.29970323823693</v>
+        <v>0.4130361506519762</v>
       </c>
       <c r="L21">
-        <v>0.6807338211914811</v>
+        <v>0.5633620443224174</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6580574358131841</v>
+        <v>1.481088709364393</v>
       </c>
       <c r="O21">
-        <v>1.112198154497804</v>
+        <v>2.445628840386277</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.856911409725143</v>
+        <v>0.7615982203529938</v>
       </c>
       <c r="C22">
-        <v>0.093026230918273</v>
+        <v>0.2127443904213848</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2133950612177458</v>
+        <v>0.276129295974755</v>
       </c>
       <c r="F22">
-        <v>1.275724092265364</v>
+        <v>1.786437124189291</v>
       </c>
       <c r="G22">
-        <v>0.3035658539399009</v>
+        <v>0.5472204279118742</v>
       </c>
       <c r="H22">
-        <v>0.2549312179971253</v>
+        <v>0.6849413680599881</v>
       </c>
       <c r="I22">
-        <v>0.2864081310577014</v>
+        <v>0.7178763372564987</v>
       </c>
       <c r="J22">
-        <v>0.09102931797465175</v>
+        <v>0.04926772611394625</v>
       </c>
       <c r="K22">
-        <v>1.393213509972639</v>
+        <v>0.4417489088013724</v>
       </c>
       <c r="L22">
-        <v>0.7262597113390257</v>
+        <v>0.5742397791035501</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6378481403832055</v>
+        <v>1.471986352379577</v>
       </c>
       <c r="O22">
-        <v>1.126849284090596</v>
+        <v>2.436675299552292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.788983077174066</v>
+        <v>0.7417969019554391</v>
       </c>
       <c r="C23">
-        <v>0.09347972388909653</v>
+        <v>0.2130374096807301</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2077371490533153</v>
+        <v>0.2751202777138246</v>
       </c>
       <c r="F23">
-        <v>1.245994661750672</v>
+        <v>1.783007306568564</v>
       </c>
       <c r="G23">
-        <v>0.2996289485987873</v>
+        <v>0.5479614138032574</v>
       </c>
       <c r="H23">
-        <v>0.2551283685526897</v>
+        <v>0.6864662425855954</v>
       </c>
       <c r="I23">
-        <v>0.2864716353545873</v>
+        <v>0.7197652310368667</v>
       </c>
       <c r="J23">
-        <v>0.08846528327117653</v>
+        <v>0.04843327267287378</v>
       </c>
       <c r="K23">
-        <v>1.343289467828527</v>
+        <v>0.4264292159187164</v>
       </c>
       <c r="L23">
-        <v>0.701917243433769</v>
+        <v>0.5684184602568934</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6485482697808784</v>
+        <v>1.476807895719421</v>
       </c>
       <c r="O23">
-        <v>1.118794865644873</v>
+        <v>2.441359482410732</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.532513670868383</v>
+        <v>0.6669250556620909</v>
       </c>
       <c r="C24">
-        <v>0.09528063453457492</v>
+        <v>0.2142024460638012</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1866828974745474</v>
+        <v>0.271474479568532</v>
       </c>
       <c r="F24">
-        <v>1.136989057258091</v>
+        <v>1.771472117093282</v>
       </c>
       <c r="G24">
-        <v>0.2862250755099964</v>
+        <v>0.5513220855670369</v>
       </c>
       <c r="H24">
-        <v>0.2567482682849729</v>
+        <v>0.6926780350894148</v>
       </c>
       <c r="I24">
-        <v>0.2879673456259617</v>
+        <v>0.7274815273723938</v>
       </c>
       <c r="J24">
-        <v>0.078759858962556</v>
+        <v>0.04525468653279319</v>
       </c>
       <c r="K24">
-        <v>1.154514757694358</v>
+        <v>0.3683054025849515</v>
       </c>
       <c r="L24">
-        <v>0.6106583168641322</v>
+        <v>0.5467169317556397</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6909242886284375</v>
+        <v>1.495871950977467</v>
       </c>
       <c r="O24">
-        <v>1.093299697693496</v>
+        <v>2.461176415628273</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.257178614660944</v>
+        <v>0.5864575307255109</v>
       </c>
       <c r="C25">
-        <v>0.09739852673017069</v>
+        <v>0.215577887044784</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1646951500032685</v>
+        <v>0.2679202308024529</v>
       </c>
       <c r="F25">
-        <v>1.026336480039348</v>
+        <v>1.762148314507144</v>
       </c>
       <c r="G25">
-        <v>0.2746856185449431</v>
+        <v>0.5561309452303291</v>
       </c>
       <c r="H25">
-        <v>0.2602309797814186</v>
+        <v>0.7003130720805189</v>
       </c>
       <c r="I25">
-        <v>0.2920591792562064</v>
+        <v>0.7370073069161585</v>
       </c>
       <c r="J25">
-        <v>0.06828985897294615</v>
+        <v>0.0417878676362804</v>
       </c>
       <c r="K25">
-        <v>0.9512795036781654</v>
+        <v>0.3054122591279338</v>
       </c>
       <c r="L25">
-        <v>0.5139615635251573</v>
+        <v>0.5240572360903997</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7403608560287296</v>
+        <v>1.518152535559036</v>
       </c>
       <c r="O25">
-        <v>1.075593116319936</v>
+        <v>2.486991105469784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5274804347440067</v>
+        <v>1.055161782867316</v>
       </c>
       <c r="C2">
-        <v>0.2166936413146736</v>
+        <v>0.09910640887881428</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2656308330134358</v>
+        <v>0.1490513194701215</v>
       </c>
       <c r="F2">
-        <v>1.757973475083546</v>
+        <v>0.9501065007699054</v>
       </c>
       <c r="G2">
-        <v>0.5606897635212249</v>
+        <v>0.2684162416489855</v>
       </c>
       <c r="H2">
-        <v>0.7067414277022337</v>
+        <v>0.2641662198980157</v>
       </c>
       <c r="I2">
-        <v>0.7450574551184417</v>
+        <v>0.2970131006608199</v>
       </c>
       <c r="J2">
-        <v>0.03920254792420863</v>
+        <v>0.06056611117635669</v>
       </c>
       <c r="K2">
-        <v>0.2589464960078942</v>
+        <v>0.8016967581802135</v>
       </c>
       <c r="L2">
-        <v>0.5080229710374056</v>
+        <v>0.4440061898555854</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.536038497746656</v>
+        <v>0.7797607057114355</v>
       </c>
       <c r="O2">
-        <v>2.509821724427596</v>
+        <v>1.070123637918158</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4876902216841188</v>
+        <v>0.91850825860908</v>
       </c>
       <c r="C3">
-        <v>0.2175145129797205</v>
+        <v>0.1003554353896838</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2642848230432797</v>
+        <v>0.1387545086668069</v>
       </c>
       <c r="F3">
-        <v>1.7568267384693</v>
+        <v>0.901382965764526</v>
       </c>
       <c r="G3">
-        <v>0.5644144012901222</v>
+        <v>0.2654247850363518</v>
       </c>
       <c r="H3">
-        <v>0.7116026924184595</v>
+        <v>0.2676317933381966</v>
       </c>
       <c r="I3">
-        <v>0.7511606913847544</v>
+        <v>0.3014923373156613</v>
       </c>
       <c r="J3">
-        <v>0.03743014707833936</v>
+        <v>0.05531611043887352</v>
       </c>
       <c r="K3">
-        <v>0.2273645260292199</v>
+        <v>0.7002348962421081</v>
       </c>
       <c r="L3">
-        <v>0.4975651653776936</v>
+        <v>0.3972538259176162</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.549085865828527</v>
+        <v>0.8082376360984469</v>
       </c>
       <c r="O3">
-        <v>2.527682279579295</v>
+        <v>1.070739396298379</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4633512788404346</v>
+        <v>0.8346720197246498</v>
       </c>
       <c r="C4">
-        <v>0.2180506012910826</v>
+        <v>0.1011671906008775</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2635601982088538</v>
+        <v>0.1325718988983979</v>
       </c>
       <c r="F4">
-        <v>1.756954315770969</v>
+        <v>0.8728128397789661</v>
       </c>
       <c r="G4">
-        <v>0.5670146360707307</v>
+        <v>0.2641671403716472</v>
       </c>
       <c r="H4">
-        <v>0.7148369771477761</v>
+        <v>0.2701359720161491</v>
       </c>
       <c r="I4">
-        <v>0.7552278915601214</v>
+        <v>0.3047681910849853</v>
       </c>
       <c r="J4">
-        <v>0.03633192687429343</v>
+        <v>0.05208299729271815</v>
       </c>
       <c r="K4">
-        <v>0.2079305845066699</v>
+        <v>0.6378564304053356</v>
       </c>
       <c r="L4">
-        <v>0.4913469810525584</v>
+        <v>0.3688357855483559</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.557554367793287</v>
+        <v>0.8265680959193098</v>
       </c>
       <c r="O4">
-        <v>2.539827720820824</v>
+        <v>1.073125489100534</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4534570159390512</v>
+        <v>0.8005182747398294</v>
       </c>
       <c r="C5">
-        <v>0.2182771470932483</v>
+        <v>0.1015092171699692</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2632905967681722</v>
+        <v>0.1300860660949112</v>
       </c>
       <c r="F5">
-        <v>1.757215773829003</v>
+        <v>0.861494430719155</v>
       </c>
       <c r="G5">
-        <v>0.568153046090913</v>
+        <v>0.2637944448765879</v>
       </c>
       <c r="H5">
-        <v>0.7162177730101078</v>
+        <v>0.2712485627389754</v>
       </c>
       <c r="I5">
-        <v>0.7569657748888581</v>
+        <v>0.3062313251719324</v>
       </c>
       <c r="J5">
-        <v>0.03588190531295865</v>
+        <v>0.05076281461118626</v>
       </c>
       <c r="K5">
-        <v>0.2000009788888804</v>
+        <v>0.6124117436102381</v>
       </c>
       <c r="L5">
-        <v>0.4888643223523985</v>
+        <v>0.3573227631491989</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.561120436780474</v>
+        <v>0.834246140583133</v>
       </c>
       <c r="O5">
-        <v>2.54507372845859</v>
+        <v>1.07458517414085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4518155579500274</v>
+        <v>0.7948474821188256</v>
       </c>
       <c r="C6">
-        <v>0.2183152538192399</v>
+        <v>0.1015666873299192</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2632473836455524</v>
+        <v>0.1296752842406548</v>
       </c>
       <c r="F6">
-        <v>1.757271850067291</v>
+        <v>0.8596341854940945</v>
       </c>
       <c r="G6">
-        <v>0.5683468375188596</v>
+        <v>0.2637408371425209</v>
       </c>
       <c r="H6">
-        <v>0.7164508481306555</v>
+        <v>0.2714387998768117</v>
       </c>
       <c r="I6">
-        <v>0.757259210609142</v>
+        <v>0.3064819071912055</v>
       </c>
       <c r="J6">
-        <v>0.03580702979031614</v>
+        <v>0.05054343131880756</v>
       </c>
       <c r="K6">
-        <v>0.1986836795600908</v>
+        <v>0.6081850329024547</v>
       </c>
       <c r="L6">
-        <v>0.488455185157278</v>
+        <v>0.355414976292252</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.561719533023933</v>
+        <v>0.8355335262968353</v>
       </c>
       <c r="O6">
-        <v>2.545962745628927</v>
+        <v>1.074856486137563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4632177428746331</v>
+        <v>0.8342113784181606</v>
       </c>
       <c r="C7">
-        <v>0.2180536238010156</v>
+        <v>0.1011717578824545</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2635564581452563</v>
+        <v>0.1325382398438748</v>
       </c>
       <c r="F7">
-        <v>1.756956993304996</v>
+        <v>0.8726589018862825</v>
       </c>
       <c r="G7">
-        <v>0.5670296700175683</v>
+        <v>0.2641615555270036</v>
       </c>
       <c r="H7">
-        <v>0.7148553446779857</v>
+        <v>0.2701506070602306</v>
       </c>
       <c r="I7">
-        <v>0.7552510033871727</v>
+        <v>0.3047874094852467</v>
       </c>
       <c r="J7">
-        <v>0.03632586777784752</v>
+        <v>0.05206520395357472</v>
       </c>
       <c r="K7">
-        <v>0.2078236832838343</v>
+        <v>0.6375133815447214</v>
       </c>
       <c r="L7">
-        <v>0.4913132909734799</v>
+        <v>0.368680249655327</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.55760199496482</v>
+        <v>0.8266708072315154</v>
       </c>
       <c r="O7">
-        <v>2.539897268989705</v>
+        <v>1.073143224471096</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5137420672638768</v>
+        <v>1.008024655472951</v>
       </c>
       <c r="C8">
-        <v>0.2169700345571339</v>
+        <v>0.09952773565170858</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.265145642630138</v>
+        <v>0.1454710702138726</v>
       </c>
       <c r="F8">
-        <v>1.757405663275406</v>
+        <v>0.9330183377829826</v>
       </c>
       <c r="G8">
-        <v>0.5619090024383908</v>
+        <v>0.2672610146928278</v>
       </c>
       <c r="H8">
-        <v>0.7083658624044062</v>
+        <v>0.2652815079168747</v>
       </c>
       <c r="I8">
-        <v>0.7470955107100359</v>
+        <v>0.2984460228767745</v>
       </c>
       <c r="J8">
-        <v>0.03859350045953747</v>
+        <v>0.05875774594406735</v>
       </c>
       <c r="K8">
-        <v>0.2480661806433773</v>
+        <v>0.7667264543844112</v>
       </c>
       <c r="L8">
-        <v>0.5043751541453645</v>
+        <v>0.4278231587836245</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.54044235140428</v>
+        <v>0.7894013811244704</v>
       </c>
       <c r="O8">
-        <v>2.515735449349506</v>
+        <v>1.069908374980173</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6135223849506701</v>
+        <v>1.349788838121214</v>
       </c>
       <c r="C9">
-        <v>0.2150986231032945</v>
+        <v>0.09666189823723315</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2690667531710389</v>
+        <v>0.1720121172807794</v>
       </c>
       <c r="F9">
-        <v>1.76487171876596</v>
+        <v>1.062749491741542</v>
       </c>
       <c r="G9">
-        <v>0.5543529238381097</v>
+        <v>0.2782084914638787</v>
       </c>
       <c r="H9">
-        <v>0.6976160779050886</v>
+        <v>0.2588370259123138</v>
       </c>
       <c r="I9">
-        <v>0.7336376887750191</v>
+        <v>0.2903670061461412</v>
       </c>
       <c r="J9">
-        <v>0.04296076561315942</v>
+        <v>0.07181810276105693</v>
       </c>
       <c r="K9">
-        <v>0.3266232911771851</v>
+        <v>1.019713042725556</v>
       </c>
       <c r="L9">
-        <v>0.5315896487941245</v>
+        <v>0.5463247294344171</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.510417526126343</v>
+        <v>0.7232287657992345</v>
       </c>
       <c r="O9">
-        <v>2.477701853038653</v>
+        <v>1.080326873527795</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6872247813307126</v>
+        <v>1.602002132533102</v>
       </c>
       <c r="C10">
-        <v>0.2138769221510479</v>
+        <v>0.09477791238441569</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2724343654263208</v>
+        <v>0.1923369266137129</v>
       </c>
       <c r="F10">
-        <v>1.774357980280683</v>
+        <v>1.16599543666662</v>
       </c>
       <c r="G10">
-        <v>0.5503167523368333</v>
+        <v>0.2896195674526538</v>
       </c>
       <c r="H10">
-        <v>0.6909185896358991</v>
+        <v>0.2561660280652234</v>
       </c>
       <c r="I10">
-        <v>0.7252926066678604</v>
+        <v>0.2873569613845852</v>
       </c>
       <c r="J10">
-        <v>0.04612044379233282</v>
+        <v>0.08139355849387897</v>
       </c>
       <c r="K10">
-        <v>0.3840976657308772</v>
+        <v>1.20570845950715</v>
       </c>
       <c r="L10">
-        <v>0.5525485839228423</v>
+        <v>0.6352786206467869</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.490562588020719</v>
+        <v>0.6791189777873861</v>
       </c>
       <c r="O10">
-        <v>2.455448563153283</v>
+        <v>1.099406806957575</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7208325606746939</v>
+        <v>1.717117015785476</v>
       </c>
       <c r="C11">
-        <v>0.2133541317639889</v>
+        <v>0.09396972087379751</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.274071302575706</v>
+        <v>0.2017871160162201</v>
       </c>
       <c r="F11">
-        <v>1.779539466856917</v>
+        <v>1.214921454499361</v>
       </c>
       <c r="G11">
-        <v>0.5488096601160422</v>
+        <v>0.2956352579952579</v>
       </c>
       <c r="H11">
-        <v>0.6881314824232021</v>
+        <v>0.255439129786005</v>
       </c>
       <c r="I11">
-        <v>0.7218304879581403</v>
+        <v>0.2866856585339725</v>
       </c>
       <c r="J11">
-        <v>0.0475471502350473</v>
+        <v>0.08574975781019845</v>
       </c>
       <c r="K11">
-        <v>0.4101872141973502</v>
+        <v>1.290438695224566</v>
       </c>
       <c r="L11">
-        <v>0.56229055274909</v>
+        <v>0.676239589361785</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.482007511761527</v>
+        <v>0.6600992537229295</v>
       </c>
       <c r="O11">
-        <v>2.446558764079384</v>
+        <v>1.110849332019683</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7335697411741364</v>
+        <v>1.760774253683905</v>
       </c>
       <c r="C12">
-        <v>0.2131608840027752</v>
+        <v>0.0936707758865758</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2747061893136262</v>
+        <v>0.205397173698401</v>
       </c>
       <c r="F12">
-        <v>1.78162581482114</v>
+        <v>1.23375060681677</v>
       </c>
       <c r="G12">
-        <v>0.5482862682800089</v>
+        <v>0.2980400461025425</v>
       </c>
       <c r="H12">
-        <v>0.6871133402087395</v>
+        <v>0.2552376151751687</v>
       </c>
       <c r="I12">
-        <v>0.7205674692551227</v>
+        <v>0.286537361364875</v>
       </c>
       <c r="J12">
-        <v>0.04808586170987894</v>
+        <v>0.08739974423563268</v>
       </c>
       <c r="K12">
-        <v>0.4200581082806707</v>
+        <v>1.3225486021054</v>
       </c>
       <c r="L12">
-        <v>0.5660091998281729</v>
+        <v>0.6918288215733668</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.478836454105128</v>
+        <v>0.6530535144712992</v>
       </c>
       <c r="O12">
-        <v>2.443369635010654</v>
+        <v>1.115604470588963</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7308261021981082</v>
+        <v>1.751368782787125</v>
       </c>
       <c r="C13">
-        <v>0.2132022936716602</v>
+        <v>0.09373484201867299</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2745687886718144</v>
+        <v>0.2046182486709753</v>
       </c>
       <c r="F13">
-        <v>1.781170962315827</v>
+        <v>1.229681648774744</v>
       </c>
       <c r="G13">
-        <v>0.5483968858365884</v>
+        <v>0.2975163582622358</v>
       </c>
       <c r="H13">
-        <v>0.6873309584545666</v>
+        <v>0.2552776763510423</v>
       </c>
       <c r="I13">
-        <v>0.7208373481728074</v>
+        <v>0.286564497879926</v>
       </c>
       <c r="J13">
-        <v>0.04796990987411931</v>
+        <v>0.08704436710153374</v>
       </c>
       <c r="K13">
-        <v>0.417932629332995</v>
+        <v>1.315631954388493</v>
       </c>
       <c r="L13">
-        <v>0.5652070118245121</v>
+        <v>0.6884678080206896</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.479516349204719</v>
+        <v>0.6545638725650207</v>
       </c>
       <c r="O13">
-        <v>2.444048589712054</v>
+        <v>1.114561183319339</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7218802479452506</v>
+        <v>1.720707341075808</v>
       </c>
       <c r="C14">
-        <v>0.213338138635411</v>
+        <v>0.09394498375000637</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2741232346639961</v>
+        <v>0.2020834743928788</v>
       </c>
       <c r="F14">
-        <v>1.779708624004897</v>
+        <v>1.216464368970904</v>
       </c>
       <c r="G14">
-        <v>0.5487656521449935</v>
+        <v>0.2958305120433096</v>
       </c>
       <c r="H14">
-        <v>0.6880469725351546</v>
+        <v>0.2554210520114353</v>
       </c>
       <c r="I14">
-        <v>0.7217256166348598</v>
+        <v>0.2866713025929357</v>
       </c>
       <c r="J14">
-        <v>0.04759150155910419</v>
+        <v>0.08588549333624229</v>
       </c>
       <c r="K14">
-        <v>0.4109994755559683</v>
+        <v>1.293079864696409</v>
       </c>
       <c r="L14">
-        <v>0.5625958969870481</v>
+        <v>0.6775205161975464</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.481745252994195</v>
+        <v>0.6595164209583544</v>
       </c>
       <c r="O14">
-        <v>2.446292840874406</v>
+        <v>1.111231933501429</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.716402013715026</v>
+        <v>1.701935216458935</v>
       </c>
       <c r="C15">
-        <v>0.213421961928276</v>
+        <v>0.09407462854565196</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2738522727675914</v>
+        <v>0.2005350152233447</v>
       </c>
       <c r="F15">
-        <v>1.778829068694506</v>
+        <v>1.208408344282418</v>
       </c>
       <c r="G15">
-        <v>0.5489976935920993</v>
+        <v>0.2948146433734635</v>
       </c>
       <c r="H15">
-        <v>0.6884904044165552</v>
+        <v>0.2555185865118759</v>
       </c>
       <c r="I15">
-        <v>0.7222759581294902</v>
+        <v>0.2867506859586477</v>
       </c>
       <c r="J15">
-        <v>0.04735951291098672</v>
+        <v>0.08517571094689202</v>
       </c>
       <c r="K15">
-        <v>0.4067515734806193</v>
+        <v>1.279269457780458</v>
       </c>
       <c r="L15">
-        <v>0.5610003568367432</v>
+        <v>0.6708253819641072</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.483119449048985</v>
+        <v>0.6625705857943629</v>
       </c>
       <c r="O15">
-        <v>2.447690588847337</v>
+        <v>1.109248402057034</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6850299716844006</v>
+        <v>1.594487696089203</v>
       </c>
       <c r="C16">
-        <v>0.2139117494880445</v>
+        <v>0.09483171883526254</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2723294933141105</v>
+        <v>0.1917236224629946</v>
       </c>
       <c r="F16">
-        <v>1.774036759705297</v>
+        <v>1.162839128999451</v>
       </c>
       <c r="G16">
-        <v>0.5504218646795209</v>
+        <v>0.2892437125227403</v>
       </c>
       <c r="H16">
-        <v>0.6911059528312435</v>
+        <v>0.2562236543293963</v>
       </c>
       <c r="I16">
-        <v>0.7255255844290147</v>
+        <v>0.2874153446065115</v>
       </c>
       <c r="J16">
-        <v>0.0460269891986087</v>
+        <v>0.08110890552643468</v>
       </c>
       <c r="K16">
-        <v>0.3823914756240185</v>
+        <v>1.200174153700686</v>
       </c>
       <c r="L16">
-        <v>0.5519160774158536</v>
+        <v>0.6326122796032223</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.491131278661477</v>
+        <v>0.6803835327063155</v>
       </c>
       <c r="O16">
-        <v>2.456054341125807</v>
+        <v>1.098716696326122</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6658041472078366</v>
+        <v>1.528677387823024</v>
       </c>
       <c r="C17">
-        <v>0.2142206484294178</v>
+        <v>0.09530873165425646</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2714221492379139</v>
+        <v>0.1863719053697395</v>
       </c>
       <c r="F17">
-        <v>1.771318446337531</v>
+        <v>1.13539966127027</v>
       </c>
       <c r="G17">
-        <v>0.551379810815888</v>
+        <v>0.2860430377990824</v>
       </c>
       <c r="H17">
-        <v>0.6927769594828561</v>
+        <v>0.2567836808563442</v>
       </c>
       <c r="I17">
-        <v>0.727604672835767</v>
+        <v>0.2880057092483881</v>
       </c>
       <c r="J17">
-        <v>0.04520678775421771</v>
+        <v>0.07861436468093075</v>
       </c>
       <c r="K17">
-        <v>0.3674326011789333</v>
+        <v>1.151687409562044</v>
       </c>
       <c r="L17">
-        <v>0.5463961470176031</v>
+        <v>0.6093014879882048</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.496168432467602</v>
+        <v>0.6915834198890494</v>
       </c>
       <c r="O17">
-        <v>2.461501042680965</v>
+        <v>1.092980699179705</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6547535623415399</v>
+        <v>1.490860284584954</v>
       </c>
       <c r="C18">
-        <v>0.2144014231188081</v>
+        <v>0.09558768931865558</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2709101564230281</v>
+        <v>0.1833128397542509</v>
       </c>
       <c r="F18">
-        <v>1.769836488582214</v>
+        <v>1.119800309786442</v>
       </c>
       <c r="G18">
-        <v>0.5519617612723309</v>
+        <v>0.2842792058295132</v>
       </c>
       <c r="H18">
-        <v>0.6937625177996694</v>
+        <v>0.2571515162128506</v>
       </c>
       <c r="I18">
-        <v>0.7288319586229868</v>
+        <v>0.288410619393904</v>
       </c>
       <c r="J18">
-        <v>0.0447340286544744</v>
+        <v>0.07717957476157977</v>
       </c>
       <c r="K18">
-        <v>0.3588234342328178</v>
+        <v>1.123809953012227</v>
       </c>
       <c r="L18">
-        <v>0.5432407905302199</v>
+        <v>0.5959399252576247</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.499110572691361</v>
+        <v>0.6981233664102717</v>
       </c>
       <c r="O18">
-        <v>2.464749935024599</v>
+        <v>1.089940003540207</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6510133566729337</v>
+        <v>1.478061798380281</v>
       </c>
       <c r="C19">
-        <v>0.214463164054667</v>
+        <v>0.09568292612129525</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2707385051900246</v>
+        <v>0.1822803113483715</v>
       </c>
       <c r="F19">
-        <v>1.76934873811436</v>
+        <v>1.114549487614724</v>
       </c>
       <c r="G19">
-        <v>0.5521641178669583</v>
+        <v>0.28369500480472</v>
       </c>
       <c r="H19">
-        <v>0.6941004101696251</v>
+        <v>0.2572838069986858</v>
       </c>
       <c r="I19">
-        <v>0.729252898920894</v>
+        <v>0.2885587746490117</v>
       </c>
       <c r="J19">
-        <v>0.04457378925114597</v>
+        <v>0.07669376993830213</v>
       </c>
       <c r="K19">
-        <v>0.3559076410177227</v>
+        <v>1.114372776597122</v>
       </c>
       <c r="L19">
-        <v>0.5421758093849149</v>
+        <v>0.5914236570494609</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.5001144439229</v>
+        <v>0.7003543397054841</v>
       </c>
       <c r="O19">
-        <v>2.46586989660392</v>
+        <v>1.088954140882734</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6678499888096212</v>
+        <v>1.535679283559517</v>
       </c>
       <c r="C20">
-        <v>0.2141874444777372</v>
+        <v>0.09525747698348397</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2715177148513135</v>
+        <v>0.1869396131701464</v>
       </c>
       <c r="F20">
-        <v>1.771599378218497</v>
+        <v>1.138301545846289</v>
       </c>
       <c r="G20">
-        <v>0.5512746310041265</v>
+        <v>0.2863757165512055</v>
       </c>
       <c r="H20">
-        <v>0.6925965489928245</v>
+        <v>0.256719307856045</v>
       </c>
       <c r="I20">
-        <v>0.7273800956969119</v>
+        <v>0.2879360614749977</v>
       </c>
       <c r="J20">
-        <v>0.04529420333622625</v>
+        <v>0.07887990993747707</v>
       </c>
       <c r="K20">
-        <v>0.3690255434577807</v>
+        <v>1.156847734528469</v>
       </c>
       <c r="L20">
-        <v>0.5469817305475573</v>
+        <v>0.6117781321295439</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.495627571843034</v>
+        <v>0.690380979318352</v>
       </c>
       <c r="O20">
-        <v>2.460909217516686</v>
+        <v>1.09356437716842</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7245075803911618</v>
+        <v>1.729711475940064</v>
       </c>
       <c r="C21">
-        <v>0.2132981096860753</v>
+        <v>0.09388306671817759</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2742536978647436</v>
+        <v>0.2028271275168123</v>
       </c>
       <c r="F21">
-        <v>1.780134779153073</v>
+        <v>1.220338243041738</v>
       </c>
       <c r="G21">
-        <v>0.5486560524971225</v>
+        <v>0.2963221777428586</v>
       </c>
       <c r="H21">
-        <v>0.6878356506718575</v>
+        <v>0.2553769083463138</v>
       </c>
       <c r="I21">
-        <v>0.7214634079252846</v>
+        <v>0.2866370113850429</v>
       </c>
       <c r="J21">
-        <v>0.0477026915180474</v>
+        <v>0.08622586923673481</v>
       </c>
       <c r="K21">
-        <v>0.4130361506519762</v>
+        <v>1.29970323823693</v>
       </c>
       <c r="L21">
-        <v>0.5633620443224174</v>
+        <v>0.6807338211914526</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.481088709364393</v>
+        <v>0.658057435813177</v>
       </c>
       <c r="O21">
-        <v>2.445628840386277</v>
+        <v>1.112198154497818</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7615982203529938</v>
+        <v>1.856911409725029</v>
       </c>
       <c r="C22">
-        <v>0.2127443904213848</v>
+        <v>0.09302623091826945</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.276129295974755</v>
+        <v>0.2133950612177316</v>
       </c>
       <c r="F22">
-        <v>1.786437124189291</v>
+        <v>1.275724092265364</v>
       </c>
       <c r="G22">
-        <v>0.5472204279118742</v>
+        <v>0.3035658539399435</v>
       </c>
       <c r="H22">
-        <v>0.6849413680599881</v>
+        <v>0.2549312179971253</v>
       </c>
       <c r="I22">
-        <v>0.7178763372564987</v>
+        <v>0.2864081310577014</v>
       </c>
       <c r="J22">
-        <v>0.04926772611394625</v>
+        <v>0.09102931797468727</v>
       </c>
       <c r="K22">
-        <v>0.4417489088013724</v>
+        <v>1.393213509972725</v>
       </c>
       <c r="L22">
-        <v>0.5742397791035501</v>
+        <v>0.7262597113390541</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.471986352379577</v>
+        <v>0.637848140383209</v>
       </c>
       <c r="O22">
-        <v>2.436675299552292</v>
+        <v>1.126849284090667</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7417969019554391</v>
+        <v>1.788983077174038</v>
       </c>
       <c r="C23">
-        <v>0.2130374096807301</v>
+        <v>0.09347972388925641</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2751202777138246</v>
+        <v>0.2077371490533082</v>
       </c>
       <c r="F23">
-        <v>1.783007306568564</v>
+        <v>1.245994661750714</v>
       </c>
       <c r="G23">
-        <v>0.5479614138032574</v>
+        <v>0.2996289485988015</v>
       </c>
       <c r="H23">
-        <v>0.6864662425855954</v>
+        <v>0.2551283685526897</v>
       </c>
       <c r="I23">
-        <v>0.7197652310368667</v>
+        <v>0.2864716353545802</v>
       </c>
       <c r="J23">
-        <v>0.04843327267287378</v>
+        <v>0.08846528327115522</v>
       </c>
       <c r="K23">
-        <v>0.4264292159187164</v>
+        <v>1.343289467828555</v>
       </c>
       <c r="L23">
-        <v>0.5684184602568934</v>
+        <v>0.7019172434337548</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.476807895719421</v>
+        <v>0.648548269780882</v>
       </c>
       <c r="O23">
-        <v>2.441359482410732</v>
+        <v>1.118794865644915</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6669250556620909</v>
+        <v>1.532513670868354</v>
       </c>
       <c r="C24">
-        <v>0.2142024460638012</v>
+        <v>0.09528063453486979</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.271474479568532</v>
+        <v>0.1866828974745545</v>
       </c>
       <c r="F24">
-        <v>1.771472117093282</v>
+        <v>1.136989057258091</v>
       </c>
       <c r="G24">
-        <v>0.5513220855670369</v>
+        <v>0.2862250755100604</v>
       </c>
       <c r="H24">
-        <v>0.6926780350894148</v>
+        <v>0.2567482682849729</v>
       </c>
       <c r="I24">
-        <v>0.7274815273723938</v>
+        <v>0.2879673456259617</v>
       </c>
       <c r="J24">
-        <v>0.04525468653279319</v>
+        <v>0.07875985896259863</v>
       </c>
       <c r="K24">
-        <v>0.3683054025849515</v>
+        <v>1.154514757694471</v>
       </c>
       <c r="L24">
-        <v>0.5467169317556397</v>
+        <v>0.6106583168642032</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.495871950977467</v>
+        <v>0.6909242886284872</v>
       </c>
       <c r="O24">
-        <v>2.461176415628273</v>
+        <v>1.093299697693496</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5864575307255109</v>
+        <v>1.257178614660688</v>
       </c>
       <c r="C25">
-        <v>0.215577887044784</v>
+        <v>0.09739852672963778</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2679202308024529</v>
+        <v>0.1646951500032685</v>
       </c>
       <c r="F25">
-        <v>1.762148314507144</v>
+        <v>1.026336480039348</v>
       </c>
       <c r="G25">
-        <v>0.5561309452303291</v>
+        <v>0.2746856185448792</v>
       </c>
       <c r="H25">
-        <v>0.7003130720805189</v>
+        <v>0.2602309797814115</v>
       </c>
       <c r="I25">
-        <v>0.7370073069161585</v>
+        <v>0.2920591792562028</v>
       </c>
       <c r="J25">
-        <v>0.0417878676362804</v>
+        <v>0.06828985897297457</v>
       </c>
       <c r="K25">
-        <v>0.3054122591279338</v>
+        <v>0.9512795036781654</v>
       </c>
       <c r="L25">
-        <v>0.5240572360903997</v>
+        <v>0.5139615635251147</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.518152535559036</v>
+        <v>0.7403608560287189</v>
       </c>
       <c r="O25">
-        <v>2.486991105469784</v>
+        <v>1.075593116319951</v>
       </c>
     </row>
   </sheetData>
